--- a/九月操作记录.xlsx
+++ b/九月操作记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11385" windowHeight="8220"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="禾望电气" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>股票名称</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>评分</t>
+  </si>
+  <si>
+    <t>目前浮动盈亏</t>
   </si>
   <si>
     <t>禾望电气</t>
@@ -86,6 +89,22 @@
   <si>
     <t>35.46,37.21
 64分</t>
+  </si>
+  <si>
+    <t>9.1 禾望电气发布回购公告 预计回购1000-2000w,
+是不是回应之前减持的带来的风波？我认为应该是利好
+4.11 通过回购，但是一直没有回购
+到了9.1 仍然没有回购，是为什么？
+以韩的利益来讲话，他持有公司19.14的股票，总价值31.77亿，一千万只是三百分之一，肯定不会因为回购影响股价，最高不高于46元，
+增加了市场上线，判断是利好
+更新，四月份开始进行，无进展，份额较小。判断影响不大，但是可能会有情绪的影响</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 周末市场发酵虞书欣和上海超导上市推迟的消息
+2. 股价下跌，回应舆论
+但是这种舆论应该不会影响到公司上市，精达是好股票，一直在缓慢增涨，很可能是闷声发大财，保持无人问津，没到拉升的时候，但可能是借此机会洗掉筹码
+有利润垫底，
+看到股价有抬头，所以买了，下次可以再耐心点，等待恐慌抛售 </t>
   </si>
 </sst>
 </file>
@@ -709,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +737,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -778,6 +803,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427355</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10600055" y="485775"/>
+          <a:ext cx="3782060" cy="4515485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,13 +1102,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
@@ -1044,7 +1116,7 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,54 +1147,121 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="216" spans="1:10">
+    <row r="2" ht="216" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>603063</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>493.39</v>
+      </c>
+    </row>
+    <row r="3" ht="84" customHeight="1" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="310.5" spans="9:9">
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/九月操作记录.xlsx
+++ b/九月操作记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="禾望电气" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>股票名称</t>
   </si>
@@ -98,6 +98,19 @@
 以韩的利益来讲话，他持有公司19.14的股票，总价值31.77亿，一千万只是三百分之一，肯定不会因为回购影响股价，最高不高于46元，
 增加了市场上线，判断是利好
 更新，四月份开始进行，无进展，份额较小。判断影响不大，但是可能会有情绪的影响</t>
+  </si>
+  <si>
+    <t>34.02 * 1700</t>
+  </si>
+  <si>
+    <t>到达止损位置，全部卖出</t>
+  </si>
+  <si>
+    <t>100分，很坚决</t>
+  </si>
+  <si>
+    <t>到达止损位，这个股的股性不好，不适合我
+下次应该明白，应该符合自己的体系的才是最好的</t>
   </si>
   <si>
     <t xml:space="preserve">1. 周末市场发酵虞书欣和上海超导上市推迟的消息
@@ -809,16 +822,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>427355</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>94615</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361315</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -835,7 +848,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10600055" y="485775"/>
+          <a:off x="13895705" y="438150"/>
           <a:ext cx="3782060" cy="4515485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1102,18 +1115,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="5" max="7" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1168,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>34.1</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -1195,6 +1209,25 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="7:11">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>-3782</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="12:12">
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1212,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1258,7 +1291,7 @@
     </row>
     <row r="2" ht="310.5" spans="9:9">
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/九月操作记录.xlsx
+++ b/九月操作记录.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>股票名称</t>
   </si>
@@ -113,11 +113,23 @@
 下次应该明白，应该符合自己的体系的才是最好的</t>
   </si>
   <si>
+    <t>精达股份</t>
+  </si>
+  <si>
+    <t>高老师直播间</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. 周末市场发酵虞书欣和上海超导上市推迟的消息
 2. 股价下跌，回应舆论
 但是这种舆论应该不会影响到公司上市，精达是好股票，一直在缓慢增涨，很可能是闷声发大财，保持无人问津，没到拉升的时候，但可能是借此机会洗掉筹码
 有利润垫底，
 看到股价有抬头，所以买了，下次可以再耐心点，等待恐慌抛售 </t>
+  </si>
+  <si>
+    <t>全量卖出8.47</t>
+  </si>
+  <si>
+    <t>大盘大跌，我已经恐慌，卖出</t>
   </si>
 </sst>
 </file>
@@ -1243,15 +1255,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1289,9 +1301,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="310.5" spans="9:9">
+    <row r="2" ht="310.5" spans="1:11">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>600577</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>8.47</v>
+      </c>
+      <c r="H2">
+        <v>8.47</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="3" spans="8:9">
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/九月操作记录.xlsx
+++ b/九月操作记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="禾望电气" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="三花智控" sheetId="3" r:id="rId3"/>
     <sheet name="凯撒旅游" sheetId="4" r:id="rId4"/>
     <sheet name="天府文旅" sheetId="5" r:id="rId5"/>
+    <sheet name="招商银行" sheetId="6" r:id="rId6"/>
+    <sheet name="上证500" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>股票名称</t>
   </si>
@@ -130,6 +132,42 @@
   </si>
   <si>
     <t>大盘大跌，我已经恐慌，卖出</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>止盈价格</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>日常接触招商+猜测市场避险，会增加银行配置</t>
+  </si>
+  <si>
+    <t>46.55/7.75</t>
+  </si>
+  <si>
+    <t>48/11.5</t>
+  </si>
+  <si>
+    <t>41.6/3.7</t>
+  </si>
+  <si>
+    <t>起爆点+放量+机构猎杀+macd三靠三离macd柱缩小</t>
+  </si>
+  <si>
+    <t>上证综合ETF</t>
+  </si>
+  <si>
+    <t>淘沙博士说牛市，绝大多数人是跑不过指数的，我之前也是这么想的</t>
+  </si>
+  <si>
+    <t>1.95(50%)</t>
+  </si>
+  <si>
+    <t>1.316/(1.2%)</t>
   </si>
 </sst>
 </file>
@@ -753,11 +791,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -861,7 +902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13895705" y="438150"/>
-          <a:ext cx="3782060" cy="4515485"/>
+          <a:ext cx="3782060" cy="4172585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1177,14 +1218,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="216" spans="1:11">
+    <row r="2" ht="189" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
         <v>603063</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2">
@@ -1199,10 +1240,10 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K2">
@@ -1210,17 +1251,17 @@
       </c>
     </row>
     <row r="3" ht="84" customHeight="1" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="7:11">
       <c r="G4" t="s">
@@ -1237,7 +1278,7 @@
       </c>
     </row>
     <row r="5" ht="54" spans="12:12">
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1257,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1301,7 +1342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="310.5" spans="1:11">
+    <row r="2" ht="175.5" spans="1:11">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1317,7 +1358,7 @@
       <c r="H2">
         <v>8.47</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J2">
@@ -1389,4 +1430,189 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:11">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>600036</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45902</v>
+      </c>
+      <c r="E2">
+        <v>43.2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="4" max="4" width="9.375"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>510980</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45902</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>1.332</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>1.332</v>
+      </c>
+      <c r="L2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/九月操作记录.xlsx
+++ b/九月操作记录.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>股票名称</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>1.316/(1.2%)</t>
+  </si>
+  <si>
+    <t>刚想到+尾盘+macd绿柱变短</t>
   </si>
 </sst>
 </file>
@@ -1532,13 +1535,15 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
+    <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="9.375"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1582,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" ht="48" customHeight="1" spans="1:12">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1606,6 +1611,9 @@
       </c>
       <c r="J2">
         <v>1.332</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
       </c>
       <c r="L2">
         <v>45</v>
